--- a/doc_tables.xlsx
+++ b/doc_tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\ghq\github.com\ecormaksin\create_dml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\ghq\github.com\ecormaksin\python_sql_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E0421A-EA92-4642-B091-2BC556F50671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB11073-825B-4D89-8140-EAD016FCA13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4A1E6F1-F33B-4253-9030-F05A3D7137CE}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{B4A1E6F1-F33B-4253-9030-F05A3D7137CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>xlsxファイルの行番号やセル位置と合わせる必要があるプロパティ</t>
     <rPh sb="9" eb="10">
@@ -340,6 +340,121 @@
       <t>バアイ</t>
     </rPh>
     <rPh sb="96" eb="97">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>column_default_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラムのデフォルト値の行番号</t>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nullable_column_flag_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム値の必須／任意の行番号</t>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_name_prefix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DMLファイル名の先頭に共通で付加する文字列を指定します。
+例えば、あるフォルダ内にあらかじめ「01_truncate_tables.sql」のようなSQLファイルを配置していて、同じフォルダにDMLファイルを出力した時にファイル名の昇順で並び変えた時に実行順序通りにしたい時などに使います。</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
       <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -736,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C678AD-7E6A-4724-9B78-69C442253534}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -777,33 +892,49 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -815,7 +946,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B868983A-E04B-4E28-9D02-E046216B99CF}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -856,9 +987,17 @@
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
